--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>4.878477155052222</v>
+        <v>6.37361402228889</v>
       </c>
       <c r="R2">
-        <v>43.90629439547001</v>
+        <v>57.3625262006</v>
       </c>
       <c r="S2">
-        <v>0.0008038709635495956</v>
+        <v>0.0009185804263035742</v>
       </c>
       <c r="T2">
-        <v>0.0008038709635495955</v>
+        <v>0.0009185804263035742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>52.52117894307667</v>
+        <v>65.18655844243666</v>
       </c>
       <c r="R3">
-        <v>472.69061048769</v>
+        <v>586.67902598193</v>
       </c>
       <c r="S3">
-        <v>0.008654391397530246</v>
+        <v>0.009394841989790365</v>
       </c>
       <c r="T3">
-        <v>0.008654391397530242</v>
+        <v>0.009394841989790364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>77.54633923801332</v>
+        <v>165.7505445803278</v>
       </c>
       <c r="R4">
-        <v>697.9170531421199</v>
+        <v>1491.75490122295</v>
       </c>
       <c r="S4">
-        <v>0.01277801421667994</v>
+        <v>0.02388836308069519</v>
       </c>
       <c r="T4">
-        <v>0.01277801421667993</v>
+        <v>0.02388836308069519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>27.48821526482111</v>
+        <v>43.33420396576555</v>
       </c>
       <c r="R5">
-        <v>247.39393738339</v>
+        <v>390.00783569189</v>
       </c>
       <c r="S5">
-        <v>0.004529482744078549</v>
+        <v>0.006245428639574861</v>
       </c>
       <c r="T5">
-        <v>0.004529482744078548</v>
+        <v>0.006245428639574861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>114.9480022858</v>
+        <v>118.1732309693967</v>
       </c>
       <c r="R6">
-        <v>1034.5320205722</v>
+        <v>1063.55907872457</v>
       </c>
       <c r="S6">
-        <v>0.0189410257378971</v>
+        <v>0.01703140737765543</v>
       </c>
       <c r="T6">
-        <v>0.0189410257378971</v>
+        <v>0.01703140737765543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>81.20218890661511</v>
+        <v>85.47628405713779</v>
       </c>
       <c r="R7">
-        <v>730.8197001595361</v>
+        <v>769.28655651424</v>
       </c>
       <c r="S7">
-        <v>0.0133804217513033</v>
+        <v>0.01231904554832991</v>
       </c>
       <c r="T7">
-        <v>0.01338042175130329</v>
+        <v>0.01231904554832991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>874.2143416039413</v>
@@ -948,10 +948,10 @@
         <v>7867.929074435472</v>
       </c>
       <c r="S8">
-        <v>0.14405223244845</v>
+        <v>0.1259938521195328</v>
       </c>
       <c r="T8">
-        <v>0.1440522324484499</v>
+        <v>0.1259938521195327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>1290.757809801451</v>
+        <v>2222.873958421075</v>
       </c>
       <c r="R9">
-        <v>11616.82028821306</v>
+        <v>20005.86562578968</v>
       </c>
       <c r="S9">
-        <v>0.2126898807345446</v>
+        <v>0.3203658867959285</v>
       </c>
       <c r="T9">
-        <v>0.2126898807345446</v>
+        <v>0.3203658867959284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>457.5409861924036</v>
+        <v>581.1532851870951</v>
       </c>
       <c r="R10">
-        <v>4117.868875731632</v>
+        <v>5230.379566683856</v>
       </c>
       <c r="S10">
-        <v>0.07539318146709298</v>
+        <v>0.08375719498984871</v>
       </c>
       <c r="T10">
-        <v>0.07539318146709297</v>
+        <v>0.0837571949898487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>1913.30800563104</v>
+        <v>1584.816498609125</v>
       </c>
       <c r="R11">
-        <v>17219.77205067936</v>
+        <v>14263.34848748213</v>
       </c>
       <c r="S11">
-        <v>0.3152731274883494</v>
+        <v>0.2284075266896235</v>
       </c>
       <c r="T11">
-        <v>0.3152731274883493</v>
+        <v>0.2284075266896234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>8.371767406828221</v>
+        <v>4.644303363573333</v>
       </c>
       <c r="R12">
-        <v>75.34590666145399</v>
+        <v>41.79873027216</v>
       </c>
       <c r="S12">
-        <v>0.001379492107484935</v>
+        <v>0.0006693480572678688</v>
       </c>
       <c r="T12">
-        <v>0.001379492107484935</v>
+        <v>0.0006693480572678688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>90.12957938902865</v>
+        <v>47.49991944527199</v>
       </c>
       <c r="R13">
-        <v>811.1662145012579</v>
+        <v>427.4992750074479</v>
       </c>
       <c r="S13">
-        <v>0.01485146891643129</v>
+        <v>0.006845801471635726</v>
       </c>
       <c r="T13">
-        <v>0.01485146891643129</v>
+        <v>0.006845801471635725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>133.0742964901093</v>
+        <v>120.7785424433466</v>
       </c>
       <c r="R14">
-        <v>1197.668668410984</v>
+        <v>1087.00688199012</v>
       </c>
       <c r="S14">
-        <v>0.02192785976919136</v>
+        <v>0.01740689106964328</v>
       </c>
       <c r="T14">
-        <v>0.02192785976919135</v>
+        <v>0.01740689106964328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>47.17147120133311</v>
+        <v>31.57662019258933</v>
       </c>
       <c r="R15">
-        <v>424.5432408119979</v>
+        <v>284.189581733304</v>
       </c>
       <c r="S15">
-        <v>0.007772871492776669</v>
+        <v>0.004550897675369154</v>
       </c>
       <c r="T15">
-        <v>0.007772871492776667</v>
+        <v>0.004550897675369154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>197.25785494756</v>
+        <v>86.11006756232797</v>
       </c>
       <c r="R16">
-        <v>1775.32069452804</v>
+        <v>774.9906080609519</v>
       </c>
       <c r="S16">
-        <v>0.03250396730057538</v>
+        <v>0.01241038793592129</v>
       </c>
       <c r="T16">
-        <v>0.03250396730057537</v>
+        <v>0.01241038793592129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>6.468947453729222</v>
+        <v>10.20337360567556</v>
       </c>
       <c r="R17">
-        <v>58.220527083563</v>
+        <v>91.83036245107999</v>
       </c>
       <c r="S17">
-        <v>0.001065947191614008</v>
+        <v>0.001470534494818718</v>
       </c>
       <c r="T17">
-        <v>0.001065947191614008</v>
+        <v>0.001470534494818718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>69.64401717835567</v>
+        <v>104.3556775685527</v>
       </c>
       <c r="R18">
-        <v>626.796154605201</v>
+        <v>939.2010981169739</v>
       </c>
       <c r="S18">
-        <v>0.01147587688027824</v>
+        <v>0.01503998868662188</v>
       </c>
       <c r="T18">
-        <v>0.01147587688027824</v>
+        <v>0.01503998868662187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>102.8278247117053</v>
+        <v>265.3462738382011</v>
       </c>
       <c r="R19">
-        <v>925.4504224053478</v>
+        <v>2388.11646454381</v>
       </c>
       <c r="S19">
-        <v>0.01694387406223749</v>
+        <v>0.03824233668496092</v>
       </c>
       <c r="T19">
-        <v>0.01694387406223748</v>
+        <v>0.03824233668496091</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>36.44986221997011</v>
+        <v>69.37274071210022</v>
       </c>
       <c r="R20">
-        <v>328.048759979731</v>
+        <v>624.3546664089019</v>
       </c>
       <c r="S20">
-        <v>0.006006174659170608</v>
+        <v>0.009998164544373153</v>
       </c>
       <c r="T20">
-        <v>0.006006174659170606</v>
+        <v>0.009998164544373151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>152.42309496682</v>
+        <v>189.1808354810807</v>
       </c>
       <c r="R21">
-        <v>1371.80785470138</v>
+        <v>1702.627519329726</v>
       </c>
       <c r="S21">
-        <v>0.02511613692631456</v>
+        <v>0.02726519238488031</v>
       </c>
       <c r="T21">
-        <v>0.02511613692631456</v>
+        <v>0.02726519238488031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N22">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q22">
-        <v>5.812819452542555</v>
+        <v>4.189113852420001</v>
       </c>
       <c r="R22">
-        <v>52.315375072883</v>
+        <v>37.70202467178</v>
       </c>
       <c r="S22">
-        <v>0.0009578310250804478</v>
+        <v>0.0006037450612687503</v>
       </c>
       <c r="T22">
-        <v>0.0009578310250804476</v>
+        <v>0.0006037450612687502</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q23">
-        <v>62.58021118631566</v>
+        <v>42.84443865095101</v>
       </c>
       <c r="R23">
-        <v>563.221900676841</v>
+        <v>385.599947858559</v>
       </c>
       <c r="S23">
-        <v>0.01031190944768137</v>
+        <v>0.006174842496438837</v>
       </c>
       <c r="T23">
-        <v>0.01031190944768137</v>
+        <v>0.006174842496438834</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N24">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O24">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P24">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q24">
-        <v>92.39827406578532</v>
+        <v>108.941002690065</v>
       </c>
       <c r="R24">
-        <v>831.5844665920679</v>
+        <v>980.469024210585</v>
       </c>
       <c r="S24">
-        <v>0.01522530233162225</v>
+        <v>0.01570083665923674</v>
       </c>
       <c r="T24">
-        <v>0.01522530233162224</v>
+        <v>0.01570083665923674</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N25">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O25">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P25">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q25">
-        <v>32.75285039339678</v>
+        <v>28.481786547123</v>
       </c>
       <c r="R25">
-        <v>294.775653540571</v>
+        <v>256.336078924107</v>
       </c>
       <c r="S25">
-        <v>0.005396984462142834</v>
+        <v>0.004104862882636258</v>
       </c>
       <c r="T25">
-        <v>0.005396984462142832</v>
+        <v>0.004104862882636257</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N26">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q26">
-        <v>136.96322899162</v>
+        <v>77.670395023599</v>
       </c>
       <c r="R26">
-        <v>1232.66906092458</v>
+        <v>699.033555212391</v>
       </c>
       <c r="S26">
-        <v>0.022568674477923</v>
+        <v>0.01119404223764442</v>
       </c>
       <c r="T26">
-        <v>0.02256867447792299</v>
+        <v>0.01119404223764442</v>
       </c>
     </row>
   </sheetData>
